--- a/ML/ig/StructureDefinition-ActiviteSociale.xlsx
+++ b/ML/ig/StructureDefinition-ActiviteSociale.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-28T09:35:07+00:00</t>
+    <t>2025-10-28T11:41:28+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ML/ig/StructureDefinition-ActiviteSociale.xlsx
+++ b/ML/ig/StructureDefinition-ActiviteSociale.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-28T11:41:28+00:00</t>
+    <t>2025-10-28T14:16:13+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ML/ig/StructureDefinition-ActiviteSociale.xlsx
+++ b/ML/ig/StructureDefinition-ActiviteSociale.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-28T14:16:13+00:00</t>
+    <t>2025-10-28T15:15:51+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ML/ig/StructureDefinition-ActiviteSociale.xlsx
+++ b/ML/ig/StructureDefinition-ActiviteSociale.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-28T15:15:51+00:00</t>
+    <t>2025-10-29T10:18:40+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ML/ig/StructureDefinition-ActiviteSociale.xlsx
+++ b/ML/ig/StructureDefinition-ActiviteSociale.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-29T10:18:40+00:00</t>
+    <t>2025-10-29T11:46:56+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ML/ig/StructureDefinition-ActiviteSociale.xlsx
+++ b/ML/ig/StructureDefinition-ActiviteSociale.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-29T11:46:56+00:00</t>
+    <t>2025-10-29T12:55:39+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ML/ig/StructureDefinition-ActiviteSociale.xlsx
+++ b/ML/ig/StructureDefinition-ActiviteSociale.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-29T12:55:39+00:00</t>
+    <t>2025-10-29T15:03:41+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ML/ig/StructureDefinition-ActiviteSociale.xlsx
+++ b/ML/ig/StructureDefinition-ActiviteSociale.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-29T15:03:41+00:00</t>
+    <t>2025-10-30T13:09:51+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ML/ig/StructureDefinition-ActiviteSociale.xlsx
+++ b/ML/ig/StructureDefinition-ActiviteSociale.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-30T13:09:51+00:00</t>
+    <t>2025-10-30T14:07:11+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ML/ig/StructureDefinition-ActiviteSociale.xlsx
+++ b/ML/ig/StructureDefinition-ActiviteSociale.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-30T14:07:11+00:00</t>
+    <t>2025-10-30T14:16:37+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ML/ig/StructureDefinition-ActiviteSociale.xlsx
+++ b/ML/ig/StructureDefinition-ActiviteSociale.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-30T14:16:37+00:00</t>
+    <t>2025-10-30T15:20:59+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ML/ig/StructureDefinition-ActiviteSociale.xlsx
+++ b/ML/ig/StructureDefinition-ActiviteSociale.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="653" uniqueCount="127">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="684" uniqueCount="130">
   <si>
     <t>Property</t>
   </si>
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-30T15:20:59+00:00</t>
+    <t>2025-10-30T16:36:55+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -399,6 +399,16 @@
   </si>
   <si>
     <t>https://mos.esante.gouv.fr/NOS/TRE_R301-SourceInformationInstallation/FHIR/TRE-R301-SourceInformationInstallation?vs</t>
+  </si>
+  <si>
+    <t>ActiviteSociale.EntiteGeographique</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://interop.esante.gouv.fr/ig/mos/StructureDefinition/EntiteGeographique
+</t>
+  </si>
+  <si>
+    <t>Lien vers la classe EntiteGeographique</t>
   </si>
 </sst>
 </file>
@@ -703,7 +713,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AJ20"/>
+  <dimension ref="A1:AJ21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -722,7 +732,7 @@
     <col min="8" max="8" width="13.953125" customWidth="true" bestFit="true"/>
     <col min="9" max="9" width="11.3671875" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="53.796875" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="61.65625" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -2741,6 +2751,106 @@
         <v>71</v>
       </c>
     </row>
+    <row r="21">
+      <c r="A21" t="s" s="2">
+        <v>127</v>
+      </c>
+      <c r="B21" t="s" s="2">
+        <v>127</v>
+      </c>
+      <c r="C21" s="2"/>
+      <c r="D21" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="E21" s="2"/>
+      <c r="F21" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="G21" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="H21" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="I21" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="J21" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="K21" t="s" s="2">
+        <v>128</v>
+      </c>
+      <c r="L21" t="s" s="2">
+        <v>129</v>
+      </c>
+      <c r="M21" t="s" s="2">
+        <v>129</v>
+      </c>
+      <c r="N21" s="2"/>
+      <c r="O21" s="2"/>
+      <c r="P21" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="Q21" s="2"/>
+      <c r="R21" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="S21" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="T21" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="U21" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="V21" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="W21" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="X21" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="Y21" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="Z21" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AA21" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AB21" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AC21" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AD21" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AE21" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AF21" t="s" s="2">
+        <v>127</v>
+      </c>
+      <c r="AG21" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AH21" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AI21" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AJ21" t="s" s="2">
+        <v>71</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>

--- a/ML/ig/StructureDefinition-ActiviteSociale.xlsx
+++ b/ML/ig/StructureDefinition-ActiviteSociale.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-30T16:36:55+00:00</t>
+    <t>2025-10-30T16:59:08+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ML/ig/StructureDefinition-ActiviteSociale.xlsx
+++ b/ML/ig/StructureDefinition-ActiviteSociale.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-30T16:59:08+00:00</t>
+    <t>2025-11-03T11:12:25+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ML/ig/StructureDefinition-ActiviteSociale.xlsx
+++ b/ML/ig/StructureDefinition-ActiviteSociale.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-03T11:12:25+00:00</t>
+    <t>2025-11-03T11:13:02+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ML/ig/StructureDefinition-ActiviteSociale.xlsx
+++ b/ML/ig/StructureDefinition-ActiviteSociale.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-03T11:13:02+00:00</t>
+    <t>2025-11-03T13:49:33+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ML/ig/StructureDefinition-ActiviteSociale.xlsx
+++ b/ML/ig/StructureDefinition-ActiviteSociale.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="684" uniqueCount="130">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="746" uniqueCount="136">
   <si>
     <t>Property</t>
   </si>
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-03T13:49:33+00:00</t>
+    <t>2025-11-03T18:48:51+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -409,6 +409,26 @@
   </si>
   <si>
     <t>Lien vers la classe EntiteGeographique</t>
+  </si>
+  <si>
+    <t>ActiviteSociale.CapaciteActiviteExercee</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://interop.esante.gouv.fr/ig/mos/StructureDefinition/CapaciteActiviteExercee
+</t>
+  </si>
+  <si>
+    <t>Lien vers la classe CapaciteActiviteExercee</t>
+  </si>
+  <si>
+    <t>ActiviteSociale.CapaciteHabitation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://interop.esante.gouv.fr/ig/mos/StructureDefinition/CapaciteHabitation
+</t>
+  </si>
+  <si>
+    <t>Lien vers la classe CapaciteHabitation</t>
   </si>
 </sst>
 </file>
@@ -713,7 +733,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AJ21"/>
+  <dimension ref="A1:AJ23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -732,7 +752,7 @@
     <col min="8" max="8" width="13.953125" customWidth="true" bestFit="true"/>
     <col min="9" max="9" width="11.3671875" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="61.65625" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="65.06640625" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -2851,6 +2871,206 @@
         <v>71</v>
       </c>
     </row>
+    <row r="22">
+      <c r="A22" t="s" s="2">
+        <v>130</v>
+      </c>
+      <c r="B22" t="s" s="2">
+        <v>130</v>
+      </c>
+      <c r="C22" s="2"/>
+      <c r="D22" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="E22" s="2"/>
+      <c r="F22" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="G22" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="H22" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="I22" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="J22" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="K22" t="s" s="2">
+        <v>131</v>
+      </c>
+      <c r="L22" t="s" s="2">
+        <v>132</v>
+      </c>
+      <c r="M22" t="s" s="2">
+        <v>132</v>
+      </c>
+      <c r="N22" s="2"/>
+      <c r="O22" s="2"/>
+      <c r="P22" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="Q22" s="2"/>
+      <c r="R22" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="S22" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="T22" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="U22" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="V22" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="W22" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="X22" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="Y22" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="Z22" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AA22" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AB22" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AC22" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AD22" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AE22" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AF22" t="s" s="2">
+        <v>130</v>
+      </c>
+      <c r="AG22" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AH22" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AI22" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AJ22" t="s" s="2">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="s" s="2">
+        <v>133</v>
+      </c>
+      <c r="B23" t="s" s="2">
+        <v>133</v>
+      </c>
+      <c r="C23" s="2"/>
+      <c r="D23" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="E23" s="2"/>
+      <c r="F23" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="G23" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="H23" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="I23" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="J23" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="K23" t="s" s="2">
+        <v>134</v>
+      </c>
+      <c r="L23" t="s" s="2">
+        <v>135</v>
+      </c>
+      <c r="M23" t="s" s="2">
+        <v>135</v>
+      </c>
+      <c r="N23" s="2"/>
+      <c r="O23" s="2"/>
+      <c r="P23" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="Q23" s="2"/>
+      <c r="R23" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="S23" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="T23" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="U23" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="V23" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="W23" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="X23" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="Y23" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="Z23" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AA23" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AB23" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AC23" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AD23" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AE23" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AF23" t="s" s="2">
+        <v>133</v>
+      </c>
+      <c r="AG23" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AH23" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AI23" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AJ23" t="s" s="2">
+        <v>71</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>

--- a/ML/ig/StructureDefinition-ActiviteSociale.xlsx
+++ b/ML/ig/StructureDefinition-ActiviteSociale.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-03T18:48:51+00:00</t>
+    <t>2025-11-04T13:35:30+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ML/ig/StructureDefinition-ActiviteSociale.xlsx
+++ b/ML/ig/StructureDefinition-ActiviteSociale.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-04T13:35:30+00:00</t>
+    <t>2025-11-04T14:33:37+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ML/ig/StructureDefinition-ActiviteSociale.xlsx
+++ b/ML/ig/StructureDefinition-ActiviteSociale.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-04T14:33:37+00:00</t>
+    <t>2025-11-05T10:41:12+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ML/ig/StructureDefinition-ActiviteSociale.xlsx
+++ b/ML/ig/StructureDefinition-ActiviteSociale.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-05T10:41:12+00:00</t>
+    <t>2025-11-07T16:48:20+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ML/ig/StructureDefinition-ActiviteSociale.xlsx
+++ b/ML/ig/StructureDefinition-ActiviteSociale.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-07T16:48:20+00:00</t>
+    <t>2025-11-14T16:26:13+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ML/ig/StructureDefinition-ActiviteSociale.xlsx
+++ b/ML/ig/StructureDefinition-ActiviteSociale.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-14T16:26:13+00:00</t>
+    <t>2025-11-14T16:42:42+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ML/ig/StructureDefinition-ActiviteSociale.xlsx
+++ b/ML/ig/StructureDefinition-ActiviteSociale.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-14T16:42:42+00:00</t>
+    <t>2025-11-25T14:31:44+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ML/ig/StructureDefinition-ActiviteSociale.xlsx
+++ b/ML/ig/StructureDefinition-ActiviteSociale.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-25T14:31:44+00:00</t>
+    <t>2025-11-25T14:47:14+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ML/ig/StructureDefinition-ActiviteSociale.xlsx
+++ b/ML/ig/StructureDefinition-ActiviteSociale.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-25T14:47:14+00:00</t>
+    <t>2025-11-27T15:07:49+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ML/ig/StructureDefinition-ActiviteSociale.xlsx
+++ b/ML/ig/StructureDefinition-ActiviteSociale.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-27T15:07:49+00:00</t>
+    <t>2025-11-27T17:02:40+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ML/ig/StructureDefinition-ActiviteSociale.xlsx
+++ b/ML/ig/StructureDefinition-ActiviteSociale.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-27T17:02:40+00:00</t>
+    <t>2025-12-02T09:57:01+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ML/ig/StructureDefinition-ActiviteSociale.xlsx
+++ b/ML/ig/StructureDefinition-ActiviteSociale.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-12-02T09:57:01+00:00</t>
+    <t>2025-12-02T14:07:59+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ML/ig/StructureDefinition-ActiviteSociale.xlsx
+++ b/ML/ig/StructureDefinition-ActiviteSociale.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-12-02T14:07:59+00:00</t>
+    <t>2025-12-02T14:23:57+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ML/ig/StructureDefinition-ActiviteSociale.xlsx
+++ b/ML/ig/StructureDefinition-ActiviteSociale.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-12-02T14:23:57+00:00</t>
+    <t>2025-12-02T14:53:18+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ML/ig/StructureDefinition-ActiviteSociale.xlsx
+++ b/ML/ig/StructureDefinition-ActiviteSociale.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-12-02T14:53:18+00:00</t>
+    <t>2025-12-02T15:33:27+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
